--- a/results/complete_Table4.xlsx
+++ b/results/complete_Table4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Parameter</t>
   </si>
@@ -189,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,14 +199,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,53 +239,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3">
@@ -295,7 +299,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K4">
@@ -309,7 +313,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K5">
@@ -323,7 +327,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K6">
@@ -337,7 +341,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K7">
@@ -351,7 +355,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K8">
@@ -365,7 +369,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K9">
@@ -379,7 +383,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K10">
@@ -393,7 +397,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K11">
@@ -407,7 +411,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K12">
@@ -421,7 +425,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K13">
@@ -435,7 +439,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K14">
@@ -449,7 +453,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K15">
@@ -463,7 +467,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K16">
@@ -477,7 +481,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K17">
@@ -491,7 +495,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K18">
@@ -505,7 +509,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K19">
@@ -519,7 +523,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K20">
@@ -533,7 +537,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K21">
@@ -547,7 +551,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K22">
@@ -561,12 +565,12 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -576,14 +580,14 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="K24">
         <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -593,14 +597,14 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="H25">
-        <v>0.98999999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="K25">
         <v>0.90000000000000002</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C26">
@@ -619,7 +623,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J26">
-        <v>0.13</v>
+        <v>0.058000000000000003</v>
       </c>
       <c r="L26">
         <v>0.14999999999999999</v>
@@ -629,7 +633,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C27">
@@ -648,7 +652,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J27">
-        <v>0.12</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="L27">
         <v>0.14999999999999999</v>
@@ -658,7 +662,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28">
@@ -677,7 +681,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J28">
-        <v>0.217</v>
+        <v>0.058999999999999997</v>
       </c>
       <c r="L28">
         <v>0.14999999999999999</v>
@@ -687,7 +691,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C29">
@@ -706,7 +710,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J29">
-        <v>0.307</v>
+        <v>0.055</v>
       </c>
       <c r="L29">
         <v>0.14999999999999999</v>
@@ -716,7 +720,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C30">
@@ -735,7 +739,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J30">
-        <v>0.067000000000000004</v>
+        <v>0.070999999999999994</v>
       </c>
       <c r="L30">
         <v>0.14999999999999999</v>
@@ -745,7 +749,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C31">
@@ -764,7 +768,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J31">
-        <v>0.014999999999999999</v>
+        <v>0.071999999999999995</v>
       </c>
       <c r="L31">
         <v>0.14999999999999999</v>
@@ -774,7 +778,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -793,7 +797,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J32">
-        <v>0.19800000000000001</v>
+        <v>0.068000000000000005</v>
       </c>
       <c r="L32">
         <v>0.14999999999999999</v>
@@ -803,7 +807,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C33">
@@ -822,7 +826,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J33">
-        <v>0.154</v>
+        <v>0.066000000000000003</v>
       </c>
       <c r="L33">
         <v>0.14999999999999999</v>
@@ -832,7 +836,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C34">
@@ -851,7 +855,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J34">
-        <v>0.26000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="L34">
         <v>0.14999999999999999</v>
@@ -861,7 +865,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C35">
@@ -880,7 +884,7 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="J35">
-        <v>0.156</v>
+        <v>0.064000000000000001</v>
       </c>
       <c r="L35">
         <v>0.14999999999999999</v>
@@ -890,7 +894,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C36">
@@ -907,7 +911,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37">
@@ -924,7 +928,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C38">
@@ -941,7 +945,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C39">
@@ -958,7 +962,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40">
@@ -975,7 +979,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C41">
@@ -992,7 +996,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C42">
@@ -1009,7 +1013,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C43">
@@ -1026,7 +1030,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C44">
@@ -1043,7 +1047,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C45">
@@ -1060,7 +1064,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D46">
@@ -1070,14 +1074,14 @@
         <v>0.001</v>
       </c>
       <c r="J46">
-        <v>0.96599999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="M46">
         <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H47">
@@ -1087,16 +1091,16 @@
         <v>0.01</v>
       </c>
       <c r="J47">
-        <v>0.010999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B49">
@@ -1118,13 +1122,13 @@
         <v>-879825226.47899997</v>
       </c>
       <c r="H49">
-        <v>-668547.04000000004</v>
+        <v>-1048907.1310000001</v>
       </c>
       <c r="I49">
-        <v>-668546.18299999996</v>
+        <v>-1048906.436</v>
       </c>
       <c r="J49">
-        <v>-321403.35800000001</v>
+        <v>-537748.29599999997</v>
       </c>
       <c r="K49">
         <v>-5132.1580000000004</v>
@@ -1137,7 +1141,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B50">
@@ -1159,13 +1163,13 @@
         <v>-940029387.09800005</v>
       </c>
       <c r="H50">
-        <v>-857558.90099999995</v>
+        <v>-1001686.1949999999</v>
       </c>
       <c r="I50">
-        <v>-857557.804</v>
+        <v>-1001685.532</v>
       </c>
       <c r="J50">
-        <v>-369014.69500000001</v>
+        <v>-497710.69400000002</v>
       </c>
       <c r="K50">
         <v>-5536.4480000000003</v>
@@ -1178,7 +1182,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B51">
@@ -1200,13 +1204,13 @@
         <v>-933216731.92999995</v>
       </c>
       <c r="H51">
-        <v>-979880.39399999997</v>
+        <v>-1039843.743</v>
       </c>
       <c r="I51">
-        <v>-979879.14199999999</v>
+        <v>-1039843.054</v>
       </c>
       <c r="J51">
-        <v>-414754.68900000001</v>
+        <v>-529223.66700000002</v>
       </c>
       <c r="K51">
         <v>-4293.5950000000003</v>
@@ -1219,7 +1223,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B52">
@@ -1241,13 +1245,13 @@
         <v>-970432832.82299995</v>
       </c>
       <c r="H52">
-        <v>-1147942.649</v>
+        <v>-1357267.0930000001</v>
       </c>
       <c r="I52">
-        <v>-1147941.182</v>
+        <v>-1357266.1950000001</v>
       </c>
       <c r="J52">
-        <v>-464186.397</v>
+        <v>-631518.18700000003</v>
       </c>
       <c r="K52">
         <v>-4831.567</v>
@@ -1260,7 +1264,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B53">
@@ -1282,13 +1286,13 @@
         <v>-918365091.05999994</v>
       </c>
       <c r="H53">
-        <v>-912213.26899999997</v>
+        <v>-974189.13600000006</v>
       </c>
       <c r="I53">
-        <v>-912212.10199999996</v>
+        <v>-974188.48999999999</v>
       </c>
       <c r="J53">
-        <v>-378256.05900000001</v>
+        <v>-487111.58600000001</v>
       </c>
       <c r="K53">
         <v>-4153.8540000000003</v>
@@ -1301,7 +1305,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B54">
@@ -1323,13 +1327,13 @@
         <v>-946566742.76499999</v>
       </c>
       <c r="H54">
-        <v>-947418.33499999996</v>
+        <v>-1044164.121</v>
       </c>
       <c r="I54">
-        <v>-947417.12300000002</v>
+        <v>-1044163.4300000001</v>
       </c>
       <c r="J54">
-        <v>-389927.73300000001</v>
+        <v>-513092.84899999999</v>
       </c>
       <c r="K54">
         <v>-5964.6729999999998</v>
@@ -1342,7 +1346,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B55">
@@ -1364,13 +1368,13 @@
         <v>-932060302.09500003</v>
       </c>
       <c r="H55">
-        <v>-869175.99899999995</v>
+        <v>-995022.39599999995</v>
       </c>
       <c r="I55">
-        <v>-869174.88699999999</v>
+        <v>-995021.73699999996</v>
       </c>
       <c r="J55">
-        <v>-375048.93800000002</v>
+        <v>-497885.88299999997</v>
       </c>
       <c r="K55">
         <v>-5391.9070000000002</v>
@@ -1383,7 +1387,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B56">
@@ -1405,13 +1409,13 @@
         <v>-1000714073.041</v>
       </c>
       <c r="H56">
-        <v>-972309.54500000004</v>
+        <v>-1060783.1159999999</v>
       </c>
       <c r="I56">
-        <v>-972308.30200000003</v>
+        <v>-1060782.4129999999</v>
       </c>
       <c r="J56">
-        <v>-400635.40299999999</v>
+        <v>-524028.696</v>
       </c>
       <c r="K56">
         <v>-5214.6369999999997</v>
@@ -1424,7 +1428,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B57">
@@ -1446,13 +1450,13 @@
         <v>-946850130.38699996</v>
       </c>
       <c r="H57">
-        <v>-928907.54099999997</v>
+        <v>-1037350.874</v>
       </c>
       <c r="I57">
-        <v>-928906.353</v>
+        <v>-1037350.187</v>
       </c>
       <c r="J57">
-        <v>-395660.72899999999</v>
+        <v>-515687.50099999999</v>
       </c>
       <c r="K57">
         <v>-4941.9340000000002</v>
@@ -1465,7 +1469,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B58">
@@ -1487,13 +1491,13 @@
         <v>-1004305475.3099999</v>
       </c>
       <c r="H58">
-        <v>-931263.84199999995</v>
+        <v>-1013487.97</v>
       </c>
       <c r="I58">
-        <v>-931262.65099999995</v>
+        <v>-1013487.299</v>
       </c>
       <c r="J58">
-        <v>-390339.56099999999</v>
+        <v>-508357.73700000002</v>
       </c>
       <c r="K58">
         <v>-4150.8969999999999</v>
@@ -1506,7 +1510,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B59">
@@ -1528,13 +1532,13 @@
         <v>9472334243.6700001</v>
       </c>
       <c r="H59">
-        <v>9098243.5879999995</v>
+        <v>10450598.596000001</v>
       </c>
       <c r="I59">
-        <v>9104881.0380000006</v>
+        <v>10456224.721000001</v>
       </c>
       <c r="J59">
-        <v>3583631.2609999999</v>
+        <v>5115191.642</v>
       </c>
       <c r="K59">
         <v>-3518.5050000000001</v>
@@ -1547,7 +1551,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B60">
@@ -1569,13 +1573,13 @@
         <v>-31749.317999999999</v>
       </c>
       <c r="H60">
-        <v>-116973.92600000001</v>
+        <v>-122103.177</v>
       </c>
       <c r="I60">
-        <v>-110324.69100000001</v>
+        <v>-116470.052</v>
       </c>
       <c r="J60">
-        <v>-315596.30300000001</v>
+        <v>-127173.45299999999</v>
       </c>
       <c r="K60">
         <v>-53130.175000000003</v>

--- a/results/complete_Table4.xlsx
+++ b/results/complete_Table4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="52">
   <si>
     <t>Parameter</t>
   </si>
@@ -189,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,16 +201,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,66 +234,66 @@
     <col min="1" max="1" width="17.88671875" customWidth="true"/>
     <col min="2" max="2" width="12.109375" customWidth="true"/>
     <col min="3" max="3" width="14.33203125" customWidth="true"/>
-    <col min="4" max="4" width="9.33203125" customWidth="true"/>
+    <col min="4" max="4" width="10.21875" customWidth="true"/>
     <col min="5" max="5" width="14" customWidth="true"/>
     <col min="6" max="6" width="16.21875" customWidth="true"/>
-    <col min="7" max="7" width="12.21875" customWidth="true"/>
+    <col min="7" max="7" width="11.21875" customWidth="true"/>
     <col min="8" max="8" width="15.21875" customWidth="true"/>
     <col min="9" max="9" width="17.44140625" customWidth="true"/>
     <col min="10" max="10" width="12.44140625" customWidth="true"/>
     <col min="11" max="11" width="11.44140625" customWidth="true"/>
     <col min="12" max="12" width="13.6640625" customWidth="true"/>
-    <col min="13" max="13" width="16.21875" customWidth="true"/>
+    <col min="13" max="13" width="11.6640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K3">
@@ -299,7 +307,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K4">
@@ -313,7 +321,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K5">
@@ -327,7 +335,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K6">
@@ -341,7 +349,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K7">
@@ -355,7 +363,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K8">
@@ -369,7 +377,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K9">
@@ -383,7 +391,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K10">
@@ -397,7 +405,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11">
@@ -411,7 +419,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12">
@@ -425,7 +433,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K13">
@@ -439,7 +447,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K14">
@@ -453,7 +461,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K15">
@@ -467,7 +475,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K16">
@@ -481,7 +489,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K17">
@@ -495,7 +503,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K18">
@@ -509,7 +517,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K19">
@@ -523,7 +531,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K20">
@@ -537,7 +545,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K21">
@@ -551,7 +559,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K22">
@@ -565,46 +573,46 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H24">
-        <v>0.010999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="K24">
-        <v>0.10000000000000001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.90000000000000002</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="E25">
-        <v>0.90000000000000002</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="H25">
-        <v>0.98899999999999999</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="K25">
-        <v>0.90000000000000002</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C26">
@@ -620,20 +628,20 @@
         <v>0.001</v>
       </c>
       <c r="I26">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J26">
-        <v>0.058000000000000003</v>
+        <v>0.001</v>
       </c>
       <c r="L26">
-        <v>0.14999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="M26">
-        <v>0.048000000000000001</v>
+        <v>0.079000000000000001</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C27">
@@ -649,20 +657,20 @@
         <v>0.001</v>
       </c>
       <c r="I27">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J27">
-        <v>0.070000000000000007</v>
+        <v>0.001</v>
       </c>
       <c r="L27">
-        <v>0.14999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="M27">
-        <v>0.094</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C28">
@@ -678,20 +686,20 @@
         <v>0.001</v>
       </c>
       <c r="I28">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J28">
-        <v>0.058999999999999997</v>
+        <v>0.001</v>
       </c>
       <c r="L28">
-        <v>0.14999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="M28">
-        <v>0.121</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29">
@@ -707,20 +715,20 @@
         <v>0.001</v>
       </c>
       <c r="I29">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J29">
-        <v>0.055</v>
+        <v>0.001</v>
       </c>
       <c r="L29">
-        <v>0.14999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="M29">
-        <v>0.126</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C30">
@@ -736,20 +744,20 @@
         <v>0.001</v>
       </c>
       <c r="I30">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J30">
-        <v>0.070999999999999994</v>
+        <v>0.001</v>
       </c>
       <c r="L30">
-        <v>0.14999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="M30">
-        <v>0.097000000000000003</v>
+        <v>0.035999999999999997</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C31">
@@ -765,78 +773,78 @@
         <v>0.001</v>
       </c>
       <c r="I31">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J31">
+        <v>0.001</v>
+      </c>
+      <c r="L31">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>0.001</v>
+      </c>
+      <c r="D32">
+        <v>0.001</v>
+      </c>
+      <c r="F32">
+        <v>0.001</v>
+      </c>
+      <c r="G32">
+        <v>0.001</v>
+      </c>
+      <c r="I32">
+        <v>0.001</v>
+      </c>
+      <c r="J32">
+        <v>0.001</v>
+      </c>
+      <c r="L32">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>0.001</v>
+      </c>
+      <c r="D33">
+        <v>0.001</v>
+      </c>
+      <c r="F33">
+        <v>0.001</v>
+      </c>
+      <c r="G33">
+        <v>0.001</v>
+      </c>
+      <c r="I33">
+        <v>0.001</v>
+      </c>
+      <c r="J33">
+        <v>0.001</v>
+      </c>
+      <c r="L33">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="M33">
         <v>0.071999999999999995</v>
       </c>
-      <c r="L31">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="M31">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>0.001</v>
-      </c>
-      <c r="D32">
-        <v>0.001</v>
-      </c>
-      <c r="F32">
-        <v>0.001</v>
-      </c>
-      <c r="G32">
-        <v>0.001</v>
-      </c>
-      <c r="I32">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="J32">
-        <v>0.068000000000000005</v>
-      </c>
-      <c r="L32">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="M32">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>0.001</v>
-      </c>
-      <c r="D33">
-        <v>0.001</v>
-      </c>
-      <c r="F33">
-        <v>0.001</v>
-      </c>
-      <c r="G33">
-        <v>0.001</v>
-      </c>
-      <c r="I33">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="J33">
-        <v>0.066000000000000003</v>
-      </c>
-      <c r="L33">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="M33">
-        <v>0.13400000000000001</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C34">
@@ -852,20 +860,20 @@
         <v>0.001</v>
       </c>
       <c r="I34">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J34">
-        <v>0.059999999999999998</v>
+        <v>0.001</v>
       </c>
       <c r="L34">
-        <v>0.14999999999999999</v>
+        <v>0.041000000000000002</v>
       </c>
       <c r="M34">
-        <v>0.127</v>
+        <v>0.034000000000000002</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C35">
@@ -881,714 +889,714 @@
         <v>0.001</v>
       </c>
       <c r="I35">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="J35">
-        <v>0.064000000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="L35">
-        <v>0.14999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="M35">
-        <v>0.095000000000000001</v>
+        <v>0.034000000000000002</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F36">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I36">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L36">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F37">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I37">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L37">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F38">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I38">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L38">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C39">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F39">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I39">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L39">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C40">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F40">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I40">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L40">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C41">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F41">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I41">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L41">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C42">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F42">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I42">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L42">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C43">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F43">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I43">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L43">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C44">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F44">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I44">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L44">
-        <v>0.84999999999999998</v>
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C45">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F45">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I45">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="L45">
-        <v>0.84999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D46">
-        <v>0.001</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="G46">
-        <v>0.001</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="J46">
-        <v>0.98999999999999999</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="M46">
-        <v>0.89100000000000001</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H47">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B49">
-        <v>-2723.951</v>
+        <v>-2530.8150000000001</v>
       </c>
       <c r="C49">
-        <v>-2723.951</v>
+        <v>-2530.8150000000001</v>
       </c>
       <c r="D49">
-        <v>-2547.0949999999998</v>
+        <v>-2530.8150000000001</v>
       </c>
       <c r="E49">
-        <v>-2967.0970000000002</v>
+        <v>-2754.0129999999999</v>
       </c>
       <c r="F49">
-        <v>-2979.924</v>
+        <v>-2702.1959999999999</v>
       </c>
       <c r="G49">
-        <v>-879825226.47899997</v>
+        <v>-2701.9349999999999</v>
       </c>
       <c r="H49">
-        <v>-1048907.1310000001</v>
+        <v>-3200.6660000000002</v>
       </c>
       <c r="I49">
-        <v>-1048906.436</v>
+        <v>-3200.6660000000002</v>
       </c>
       <c r="J49">
-        <v>-537748.29599999997</v>
+        <v>-3200.6660000000002</v>
       </c>
       <c r="K49">
-        <v>-5132.1580000000004</v>
+        <v>-5105.4229999999998</v>
       </c>
       <c r="L49">
-        <v>-5132.1580000000004</v>
+        <v>-5105.4229999999998</v>
       </c>
       <c r="M49">
-        <v>-5132.1580000000004</v>
+        <v>-5105.4229999999998</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B50">
-        <v>-2969.471</v>
+        <v>-2858.0909999999999</v>
       </c>
       <c r="C50">
-        <v>-2969.471</v>
+        <v>-2858.0909999999999</v>
       </c>
       <c r="D50">
-        <v>-2871.7429999999999</v>
+        <v>-2858.0909999999999</v>
       </c>
       <c r="E50">
-        <v>-3026.893</v>
+        <v>-2800.2600000000002</v>
       </c>
       <c r="F50">
-        <v>-3046.4200000000001</v>
+        <v>-2769.6889999999999</v>
       </c>
       <c r="G50">
-        <v>-940029387.09800005</v>
+        <v>-2769.2759999999998</v>
       </c>
       <c r="H50">
-        <v>-1001686.1949999999</v>
+        <v>-3225.087</v>
       </c>
       <c r="I50">
-        <v>-1001685.532</v>
+        <v>-3225.087</v>
       </c>
       <c r="J50">
-        <v>-497710.69400000002</v>
+        <v>-3225.087</v>
       </c>
       <c r="K50">
-        <v>-5536.4480000000003</v>
+        <v>-5568.3220000000001</v>
       </c>
       <c r="L50">
-        <v>-5536.4480000000003</v>
+        <v>-5568.3220000000001</v>
       </c>
       <c r="M50">
-        <v>-5536.4480000000003</v>
+        <v>-5568.3220000000001</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B51">
-        <v>-3094.5619999999999</v>
+        <v>-3042.6840000000002</v>
       </c>
       <c r="C51">
-        <v>-3094.5619999999999</v>
+        <v>-3042.6840000000002</v>
       </c>
       <c r="D51">
-        <v>-3056.0390000000002</v>
+        <v>-3042.6840000000002</v>
       </c>
       <c r="E51">
-        <v>-3018.5349999999999</v>
+        <v>-2984.9749999999999</v>
       </c>
       <c r="F51">
-        <v>-3037.0079999999998</v>
+        <v>-3033.5920000000001</v>
       </c>
       <c r="G51">
-        <v>-933216731.92999995</v>
+        <v>-3032.6120000000001</v>
       </c>
       <c r="H51">
-        <v>-1039843.743</v>
+        <v>-3231.8739999999998</v>
       </c>
       <c r="I51">
-        <v>-1039843.054</v>
+        <v>-3231.8739999999998</v>
       </c>
       <c r="J51">
-        <v>-529223.66700000002</v>
+        <v>-3231.8739999999998</v>
       </c>
       <c r="K51">
-        <v>-4293.5950000000003</v>
+        <v>-4401.0940000000001</v>
       </c>
       <c r="L51">
-        <v>-4293.5950000000003</v>
+        <v>-4401.0940000000001</v>
       </c>
       <c r="M51">
-        <v>-4293.5950000000003</v>
+        <v>-4401.0940000000001</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B52">
-        <v>-3113.4789999999998</v>
+        <v>-3070.2280000000001</v>
       </c>
       <c r="C52">
-        <v>-3113.4789999999998</v>
+        <v>-3070.2280000000001</v>
       </c>
       <c r="D52">
-        <v>-3077.3040000000001</v>
+        <v>-3070.2280000000001</v>
       </c>
       <c r="E52">
-        <v>-3060.5650000000001</v>
+        <v>-2966.8780000000002</v>
       </c>
       <c r="F52">
-        <v>-3083.8600000000001</v>
+        <v>-3013.029</v>
       </c>
       <c r="G52">
-        <v>-970432832.82299995</v>
+        <v>-3012.067</v>
       </c>
       <c r="H52">
-        <v>-1357267.0930000001</v>
+        <v>-3233.2080000000001</v>
       </c>
       <c r="I52">
-        <v>-1357266.1950000001</v>
+        <v>-3233.2080000000001</v>
       </c>
       <c r="J52">
-        <v>-631518.18700000003</v>
+        <v>-3233.2080000000001</v>
       </c>
       <c r="K52">
-        <v>-4831.567</v>
+        <v>-5014.0619999999999</v>
       </c>
       <c r="L52">
-        <v>-4831.567</v>
+        <v>-5014.0619999999999</v>
       </c>
       <c r="M52">
-        <v>-4831.567</v>
+        <v>-5014.0619999999999</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B53">
-        <v>-3044.8310000000001</v>
+        <v>-2997.248</v>
       </c>
       <c r="C53">
-        <v>-3044.8310000000001</v>
+        <v>-2997.248</v>
       </c>
       <c r="D53">
-        <v>-3014.3130000000001</v>
+        <v>-2997.248</v>
       </c>
       <c r="E53">
-        <v>-3007.8159999999998</v>
+        <v>-3078.913</v>
       </c>
       <c r="F53">
-        <v>-3025.0920000000001</v>
+        <v>-3170.7350000000001</v>
       </c>
       <c r="G53">
-        <v>-918365091.05999994</v>
+        <v>-3169.4450000000002</v>
       </c>
       <c r="H53">
-        <v>-974189.13600000006</v>
+        <v>-3226.3679999999999</v>
       </c>
       <c r="I53">
-        <v>-974188.48999999999</v>
+        <v>-3226.3679999999999</v>
       </c>
       <c r="J53">
-        <v>-487111.58600000001</v>
+        <v>-3226.3679999999999</v>
       </c>
       <c r="K53">
-        <v>-4153.8540000000003</v>
+        <v>-4358.2759999999998</v>
       </c>
       <c r="L53">
-        <v>-4153.8540000000003</v>
+        <v>-4358.2759999999998</v>
       </c>
       <c r="M53">
-        <v>-4153.8540000000003</v>
+        <v>-4358.2759999999998</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B54">
-        <v>-3028.3240000000001</v>
+        <v>-2960.3049999999998</v>
       </c>
       <c r="C54">
-        <v>-3028.3240000000001</v>
+        <v>-2960.3049999999998</v>
       </c>
       <c r="D54">
-        <v>-2969.788</v>
+        <v>-2960.3049999999998</v>
       </c>
       <c r="E54">
-        <v>-3025.7220000000002</v>
+        <v>-3052.1790000000001</v>
       </c>
       <c r="F54">
-        <v>-3045.1880000000001</v>
+        <v>-3133.7429999999999</v>
       </c>
       <c r="G54">
-        <v>-946566742.76499999</v>
+        <v>-3132.527</v>
       </c>
       <c r="H54">
-        <v>-1044164.121</v>
+        <v>-3228.509</v>
       </c>
       <c r="I54">
-        <v>-1044163.4300000001</v>
+        <v>-3228.509</v>
       </c>
       <c r="J54">
-        <v>-513092.84899999999</v>
+        <v>-3228.509</v>
       </c>
       <c r="K54">
-        <v>-5964.6729999999998</v>
+        <v>-6140.8270000000002</v>
       </c>
       <c r="L54">
-        <v>-5964.6729999999998</v>
+        <v>-6140.8270000000002</v>
       </c>
       <c r="M54">
-        <v>-5964.6729999999998</v>
+        <v>-6140.8270000000002</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B55">
-        <v>-3012.9349999999999</v>
+        <v>-2914.4369999999999</v>
       </c>
       <c r="C55">
-        <v>-3012.9349999999999</v>
+        <v>-2914.4369999999999</v>
       </c>
       <c r="D55">
-        <v>-2925.9389999999999</v>
+        <v>-2914.4369999999999</v>
       </c>
       <c r="E55">
-        <v>-3026.9259999999999</v>
+        <v>-3081.6930000000002</v>
       </c>
       <c r="F55">
-        <v>-3046.6289999999999</v>
+        <v>-3173.2449999999999</v>
       </c>
       <c r="G55">
-        <v>-932060302.09500003</v>
+        <v>-3171.9569999999999</v>
       </c>
       <c r="H55">
-        <v>-995022.39599999995</v>
+        <v>-3228.9119999999998</v>
       </c>
       <c r="I55">
-        <v>-995021.73699999996</v>
+        <v>-3228.9119999999998</v>
       </c>
       <c r="J55">
-        <v>-497885.88299999997</v>
+        <v>-3228.9119999999998</v>
       </c>
       <c r="K55">
-        <v>-5391.9070000000002</v>
+        <v>-5439.018</v>
       </c>
       <c r="L55">
-        <v>-5391.9070000000002</v>
+        <v>-5439.018</v>
       </c>
       <c r="M55">
-        <v>-5391.9070000000002</v>
+        <v>-5439.018</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B56">
-        <v>-3052.0590000000002</v>
+        <v>-2982.8339999999998</v>
       </c>
       <c r="C56">
-        <v>-3052.0590000000002</v>
+        <v>-2982.8339999999998</v>
       </c>
       <c r="D56">
-        <v>-2978.27</v>
+        <v>-2982.8339999999998</v>
       </c>
       <c r="E56">
-        <v>-3094.3110000000001</v>
+        <v>-2944.2359999999999</v>
       </c>
       <c r="F56">
-        <v>-3121.5709999999999</v>
+        <v>-2977.174</v>
       </c>
       <c r="G56">
-        <v>-1000714073.041</v>
+        <v>-2976.306</v>
       </c>
       <c r="H56">
-        <v>-1060783.1159999999</v>
+        <v>-3229.5650000000001</v>
       </c>
       <c r="I56">
-        <v>-1060782.4129999999</v>
+        <v>-3229.5650000000001</v>
       </c>
       <c r="J56">
-        <v>-524028.696</v>
+        <v>-3229.5650000000001</v>
       </c>
       <c r="K56">
-        <v>-5214.6369999999997</v>
+        <v>-5408.7950000000001</v>
       </c>
       <c r="L56">
-        <v>-5214.6369999999997</v>
+        <v>-5408.7950000000001</v>
       </c>
       <c r="M56">
-        <v>-5214.6369999999997</v>
+        <v>-5408.7950000000001</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B57">
-        <v>-2994.9920000000002</v>
+        <v>-2899.819</v>
       </c>
       <c r="C57">
-        <v>-2994.9920000000002</v>
+        <v>-2899.819</v>
       </c>
       <c r="D57">
-        <v>-2915.4400000000001</v>
+        <v>-2899.819</v>
       </c>
       <c r="E57">
-        <v>-3027.71</v>
+        <v>-2948.4850000000001</v>
       </c>
       <c r="F57">
-        <v>-3047.386</v>
+        <v>-2984.7950000000001</v>
       </c>
       <c r="G57">
-        <v>-946850130.38699996</v>
+        <v>-2983.9029999999998</v>
       </c>
       <c r="H57">
-        <v>-1037350.874</v>
+        <v>-3225.018</v>
       </c>
       <c r="I57">
-        <v>-1037350.187</v>
+        <v>-3225.018</v>
       </c>
       <c r="J57">
-        <v>-515687.50099999999</v>
+        <v>-3225.018</v>
       </c>
       <c r="K57">
-        <v>-4941.9340000000002</v>
+        <v>-4895.6440000000002</v>
       </c>
       <c r="L57">
-        <v>-4941.9340000000002</v>
+        <v>-4895.6440000000002</v>
       </c>
       <c r="M57">
-        <v>-4941.9340000000002</v>
+        <v>-4895.6440000000002</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B58">
-        <v>-3067.9839999999999</v>
+        <v>-3008.4400000000001</v>
       </c>
       <c r="C58">
-        <v>-3067.9839999999999</v>
+        <v>-3008.4400000000001</v>
       </c>
       <c r="D58">
-        <v>-3023.8530000000001</v>
+        <v>-3008.4400000000001</v>
       </c>
       <c r="E58">
-        <v>-3081.8719999999998</v>
+        <v>-2898.1759999999999</v>
       </c>
       <c r="F58">
-        <v>-3107.5329999999999</v>
+        <v>-2913.1210000000001</v>
       </c>
       <c r="G58">
-        <v>-1004305475.3099999</v>
+        <v>-2912.3820000000001</v>
       </c>
       <c r="H58">
-        <v>-1013487.97</v>
+        <v>-3229.8449999999998</v>
       </c>
       <c r="I58">
-        <v>-1013487.299</v>
+        <v>-3229.8449999999998</v>
       </c>
       <c r="J58">
-        <v>-508357.73700000002</v>
+        <v>-3229.8449999999998</v>
       </c>
       <c r="K58">
-        <v>-4150.8969999999999</v>
+        <v>-3802.0100000000002</v>
       </c>
       <c r="L58">
-        <v>-4150.8969999999999</v>
+        <v>-3802.0100000000002</v>
       </c>
       <c r="M58">
-        <v>-4150.8969999999999</v>
+        <v>-3802.0100000000002</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B59">
-        <v>-1669.8150000000001</v>
+        <v>-14254.236999999999</v>
       </c>
       <c r="C59">
-        <v>-1519.163</v>
+        <v>-14991.606</v>
       </c>
       <c r="D59">
-        <v>-2369.79</v>
+        <v>-14991.606</v>
       </c>
       <c r="E59">
-        <v>-1434.9549999999999</v>
+        <v>-14099.262000000001</v>
       </c>
       <c r="F59">
-        <v>-1081.144</v>
+        <v>-14413.141</v>
       </c>
       <c r="G59">
-        <v>9472334243.6700001</v>
+        <v>-14422.055</v>
       </c>
       <c r="H59">
-        <v>10450598.596000001</v>
+        <v>-11260.087</v>
       </c>
       <c r="I59">
-        <v>10456224.721000001</v>
+        <v>-11997.456</v>
       </c>
       <c r="J59">
-        <v>5115191.642</v>
+        <v>-11997.442999999999</v>
       </c>
       <c r="K59">
-        <v>-3518.5050000000001</v>
+        <v>4647.3860000000004</v>
       </c>
       <c r="L59">
-        <v>-20642.560000000001</v>
+        <v>4238.6540000000005</v>
       </c>
       <c r="M59">
-        <v>-72621111010.873001</v>
+        <v>-4405342507.7659998</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B60">
-        <v>-31772.402999999998</v>
+        <v>-43519.139000000003</v>
       </c>
       <c r="C60">
-        <v>-31621.751</v>
+        <v>-44256.508000000002</v>
       </c>
       <c r="D60">
-        <v>-31749.573</v>
+        <v>-44256.508000000002</v>
       </c>
       <c r="E60">
-        <v>-31772.402999999998</v>
+        <v>-43609.07</v>
       </c>
       <c r="F60">
-        <v>-31621.755000000001</v>
+        <v>-44284.459000000003</v>
       </c>
       <c r="G60">
-        <v>-31749.317999999999</v>
+        <v>-44284.463000000003</v>
       </c>
       <c r="H60">
-        <v>-122103.177</v>
+        <v>-43519.139000000003</v>
       </c>
       <c r="I60">
-        <v>-116470.052</v>
+        <v>-44256.508000000002</v>
       </c>
       <c r="J60">
-        <v>-127173.45299999999</v>
+        <v>-44256.495000000003</v>
       </c>
       <c r="K60">
-        <v>-53130.175000000003</v>
+        <v>-45486.086000000003</v>
       </c>
       <c r="L60">
-        <v>-70254.229999999996</v>
+        <v>-45894.817000000003</v>
       </c>
       <c r="M60">
-        <v>-72621160622.542999</v>
+        <v>-4405392641.2379999</v>
       </c>
     </row>
   </sheetData>
